--- a/General Text-to-Text Prompt Engineering Methods.xlsx
+++ b/General Text-to-Text Prompt Engineering Methods.xlsx
@@ -8,37 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijyli\repo\anlp23-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B03CDF-BDE2-47E9-AF49-375A2BEB21F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11438E1-E49D-4C8C-8748-CEBA6679A159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Method</t>
   </si>
   <si>
-    <t>Alternate Spellings or Names</t>
-  </si>
-  <si>
     <t>Prompt engineering - Wikipedia</t>
   </si>
   <si>
-    <t>CoT, Chain of Thought</t>
-  </si>
-  <si>
     <t>Generated knowledge prompting</t>
   </si>
   <si>
@@ -57,24 +65,12 @@
     <t>Tree-of-thought</t>
   </si>
   <si>
-    <t>Least to most prompting</t>
-  </si>
-  <si>
-    <t>Complexity based prompting</t>
-  </si>
-  <si>
-    <t>Self refine</t>
-  </si>
-  <si>
     <t>Maieutic Prompting</t>
   </si>
   <si>
     <t>Directional-stimulus prompting</t>
   </si>
   <si>
-    <t>Directional Stimulus Prompting</t>
-  </si>
-  <si>
     <t>Retrieval-Augmented Generation</t>
   </si>
   <si>
@@ -84,18 +80,9 @@
     <t>Source 2</t>
   </si>
   <si>
-    <t>RAG, Retrieval Augmented Generation</t>
-  </si>
-  <si>
-    <t>APE</t>
-  </si>
-  <si>
     <t>Automatic Prompt Engineer</t>
   </si>
   <si>
-    <t>Original Paper</t>
-  </si>
-  <si>
     <t>Prompt Engineering Guide | Prompt Engineering Guide (promptingguide.ai)</t>
   </si>
   <si>
@@ -105,42 +92,18 @@
     <t>Zero Shot Prompting</t>
   </si>
   <si>
-    <t>Few-Shot-Learning, Few-Shot Learning, Few Shot Prompting</t>
-  </si>
-  <si>
-    <t>Zero-Shot Learning, Zero-Shot Prompting, Zero Shot Prompting</t>
-  </si>
-  <si>
     <t>Chain-of-thought Prompting</t>
   </si>
   <si>
-    <t>Self consistency decoding, Self-consistency</t>
-  </si>
-  <si>
-    <t>Generate Knowledge Prompting</t>
-  </si>
-  <si>
-    <t>Tree of Thought, Tree of Thought Prompting, Tree of Thoughts, ToT</t>
-  </si>
-  <si>
-    <t>Names in Original Paper</t>
-  </si>
-  <si>
     <t>Automatic Reasoning and Tool-Use</t>
   </si>
   <si>
     <t>[2303.09014] ART: Automatic multi-step reasoning and tool-use for large language models (arxiv.org)</t>
   </si>
   <si>
-    <t>ART</t>
-  </si>
-  <si>
     <t>Active-Prompt</t>
   </si>
   <si>
-    <t>2302.12246.pdf (arxiv.org)</t>
-  </si>
-  <si>
     <t>ReAct</t>
   </si>
   <si>
@@ -153,21 +116,12 @@
     <t>[2302.08043] GraphPrompt: Unifying Pre-Training and Downstream Tasks for Graph Neural Networks (arxiv.org)</t>
   </si>
   <si>
-    <t>GraphPrompts, GraphPrompt</t>
-  </si>
-  <si>
     <t>Name of Original Paper</t>
   </si>
   <si>
-    <t>Source 3</t>
-  </si>
-  <si>
     <t>Chain-of-Verification</t>
   </si>
   <si>
-    <t>Date of Original Paper</t>
-  </si>
-  <si>
     <t>Google Scholar Citations for Original Paper on 10/8/2023</t>
   </si>
   <si>
@@ -204,9 +158,6 @@
     <t>Self-Refine: Iterative Refinement with Self-Feedback</t>
   </si>
   <si>
-    <t>arXiv submission date</t>
-  </si>
-  <si>
     <t>[2305.10601] Tree of Thoughts: Deliberate Problem Solving with Large Language Models (arxiv.org)</t>
   </si>
   <si>
@@ -225,13 +176,64 @@
     <t>[2309.11495] Chain-of-Verification Reduces Hallucination in Large Language Models (arxiv.org)</t>
   </si>
   <si>
-    <t>https://proceedings.neurips.cc/paper_files/paper/2022/file/9d5609613524ecf4f15af0f7b31abca4-Paper-Conference.pdf</t>
+    <t>Tree of Thoughts: Deliberate Problem Solving with Large Language Models</t>
+  </si>
+  <si>
+    <t>Maieutic Prompting: Logically Consistent Reasoning with Recursive Explanations</t>
+  </si>
+  <si>
+    <t>Guiding Large Language Models via Directional Stimulus Prompting</t>
+  </si>
+  <si>
+    <t>Large Language Models Are Human-Level Prompt Engineers</t>
+  </si>
+  <si>
+    <t>ART: Automatic multi-step reasoning and tool-use for large language models</t>
+  </si>
+  <si>
+    <t>ReAct: Synergizing Reasoning and Acting in Language Models</t>
+  </si>
+  <si>
+    <t>GraphPrompt: Unifying Pre-Training and Downstream Tasks for Graph Neural Networks</t>
+  </si>
+  <si>
+    <t>Chain-of-Verification Reduces Hallucination in Large Language Models</t>
+  </si>
+  <si>
+    <t>Link to Original Paper</t>
+  </si>
+  <si>
+    <t>Active Prompting with Chain-of-Thought for Large Language Models</t>
+  </si>
+  <si>
+    <t>Original Post/Submission Date</t>
+  </si>
+  <si>
+    <t>[2302.12246] Active Prompting with Chain-of-Thought for Large Language Models (arxiv.org)</t>
+  </si>
+  <si>
+    <t>[2302.00923] Multimodal Chain-of-Thought Reasoning in Language Models (arxiv.org)</t>
+  </si>
+  <si>
+    <t>Multimodal Chain-of-Thought Reasoning in Language Models</t>
+  </si>
+  <si>
+    <t>Citations Per Day Since Release</t>
+  </si>
+  <si>
+    <t>[2201.11903] Chain-of-Thought Prompting Elicits Reasoning in Large Language Models (arxiv.org)</t>
+  </si>
+  <si>
+    <t>Days Between Release and 10/8/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,8 +263,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,385 +548,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="101.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="48.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="26.77734375" customWidth="1"/>
-    <col min="11" max="11" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44589</v>
+      </c>
+      <c r="E4" s="2">
+        <f>_xlfn.DAYS("10/8/2023",D4)</f>
+        <v>618</v>
+      </c>
+      <c r="F4">
+        <v>1303</v>
+      </c>
+      <c r="G4" s="3">
+        <f>F4/E4</f>
+        <v>2.1084142394822005</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44484</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E20" si="0">_xlfn.DAYS("10/8/2023",D5)</f>
+        <v>723</v>
+      </c>
+      <c r="F5">
+        <v>86</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G20" si="1">F5/E5</f>
+        <v>0.11894882434301521</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44702</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="F6">
+        <v>249</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49306930693069306</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44641</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="F7">
+        <v>278</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49116607773851589</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44837</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="F8">
+        <v>71</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1918918918918919</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45015</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="F9">
+        <v>84</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4375</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45063</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="F10">
+        <v>109</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44705</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9880478087649404E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44979</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0701754385964911E-2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44868</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="F14">
+        <v>138</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.40707964601769914</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15048543689320387</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44980</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4889867841409691E-2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44840</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="F17">
+        <v>191</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.52043596730245234</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44959</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44973</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45189</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4">
-        <v>1303</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6">
-        <v>249</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7">
-        <v>278</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10">
-        <v>109</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14">
-        <v>138</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15">
-        <v>31</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17">
-        <v>191</v>
-      </c>
-      <c r="I17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20">
+      <c r="F20">
         <v>0</v>
       </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://www.promptingguide.ai/" xr:uid="{D17E2CAE-9AD2-4CFF-A89C-ACC9720946AE}"/>
     <hyperlink ref="I3" r:id="rId2" display="https://www.promptingguide.ai/" xr:uid="{629C2443-7991-4CA8-AB61-D3DF35406EE5}"/>
@@ -933,29 +1102,30 @@
     <hyperlink ref="I14" r:id="rId8" display="https://www.promptingguide.ai/" xr:uid="{7FE0ADAD-A956-4410-A630-8BFE0EE088C8}"/>
     <hyperlink ref="I15" r:id="rId9" display="https://www.promptingguide.ai/" xr:uid="{BE9ACBF5-A45A-40E8-B716-EE1922E609EF}"/>
     <hyperlink ref="B15" r:id="rId10" display="https://arxiv.org/abs/2303.09014" xr:uid="{9B6FC2B2-7ACE-4660-B50D-ACC44C780F3B}"/>
-    <hyperlink ref="B16" r:id="rId11" display="https://browse.arxiv.org/pdf/2302.12246.pdf" xr:uid="{67D2E43B-6CCD-404F-BC7D-19BCA5EE3AF1}"/>
-    <hyperlink ref="I16" r:id="rId12" display="https://www.promptingguide.ai/" xr:uid="{CA1FED5E-EC03-46BD-B392-F879AAAE60C8}"/>
-    <hyperlink ref="I12" r:id="rId13" display="https://www.promptingguide.ai/" xr:uid="{B661F1AA-2284-44CD-B9DA-E8BE246E133D}"/>
-    <hyperlink ref="I17" r:id="rId14" display="https://www.promptingguide.ai/" xr:uid="{1C07AABE-24AB-4857-8019-C3A848840DB3}"/>
-    <hyperlink ref="I18" r:id="rId15" display="https://www.promptingguide.ai/" xr:uid="{7A5EEB13-7E83-4DBC-8430-E4B71505F2CD}"/>
-    <hyperlink ref="I19" r:id="rId16" display="https://www.promptingguide.ai/" xr:uid="{D3CDBE56-DD6E-4EC6-AE14-488FCA835707}"/>
-    <hyperlink ref="B12" r:id="rId17" display="https://arxiv.org/abs/2302.11520" xr:uid="{C3C994F2-78AC-4E3D-9F00-6EDD0DF23090}"/>
-    <hyperlink ref="B19" r:id="rId18" display="https://arxiv.org/abs/2302.08043" xr:uid="{E52FCA35-E4DA-4E37-B21E-3A9A5969AE4E}"/>
-    <hyperlink ref="B4" r:id="rId19" xr:uid="{88B9289D-7B32-42A0-91CB-D75716E5393B}"/>
-    <hyperlink ref="B6" r:id="rId20" display="https://arxiv.org/abs/2205.10625" xr:uid="{AB9E3F90-8908-4467-B39F-6738334AB4F7}"/>
-    <hyperlink ref="B7" r:id="rId21" display="https://arxiv.org/abs/2203.11171" xr:uid="{7266B56A-0B05-4F1E-ABA5-BA03CFC103C9}"/>
-    <hyperlink ref="B8" r:id="rId22" display="https://arxiv.org/abs/2210.00720" xr:uid="{3DF6AAA1-41DA-49D0-9AB2-F2034B2E8EC5}"/>
-    <hyperlink ref="C7" r:id="rId23" display="https://arxiv.org/abs/2203.11171" xr:uid="{EA10A7EF-28E2-44D9-8F1B-43170A074702}"/>
-    <hyperlink ref="C6" r:id="rId24" display="https://arxiv.org/abs/2205.10625" xr:uid="{A74E64C9-5FFF-46D3-8718-5E4BB6462BCC}"/>
-    <hyperlink ref="B5" r:id="rId25" display="https://arxiv.org/abs/2110.08387" xr:uid="{D8B3FD69-7DBC-4C22-9539-E58398B965D0}"/>
-    <hyperlink ref="B9" r:id="rId26" display="https://arxiv.org/abs/2303.17651" xr:uid="{11C1F1DD-041C-4138-8F53-051C6EBBC66A}"/>
-    <hyperlink ref="B10" r:id="rId27" display="https://arxiv.org/abs/2305.10601" xr:uid="{524E0623-8CA4-4712-A341-7219154F3113}"/>
-    <hyperlink ref="B11" r:id="rId28" display="https://arxiv.org/abs/2205.11822" xr:uid="{D7CB9552-7EBC-4EC4-933F-830C027F04AB}"/>
-    <hyperlink ref="B14" r:id="rId29" display="https://arxiv.org/abs/2211.01910" xr:uid="{6BF1C92E-DC69-4D02-83C7-061E772D6D9D}"/>
-    <hyperlink ref="B17" r:id="rId30" display="https://arxiv.org/abs/2210.03629" xr:uid="{6F4E5908-32E4-45CB-BE3F-4D6CC548C5A0}"/>
-    <hyperlink ref="B20" r:id="rId31" display="https://arxiv.org/abs/2309.11495" xr:uid="{55879B9C-F88C-4F3A-A402-8BC974CA767C}"/>
+    <hyperlink ref="I16" r:id="rId11" display="https://www.promptingguide.ai/" xr:uid="{CA1FED5E-EC03-46BD-B392-F879AAAE60C8}"/>
+    <hyperlink ref="I12" r:id="rId12" display="https://www.promptingguide.ai/" xr:uid="{B661F1AA-2284-44CD-B9DA-E8BE246E133D}"/>
+    <hyperlink ref="I17" r:id="rId13" display="https://www.promptingguide.ai/" xr:uid="{1C07AABE-24AB-4857-8019-C3A848840DB3}"/>
+    <hyperlink ref="I18" r:id="rId14" display="https://www.promptingguide.ai/" xr:uid="{7A5EEB13-7E83-4DBC-8430-E4B71505F2CD}"/>
+    <hyperlink ref="I19" r:id="rId15" display="https://www.promptingguide.ai/" xr:uid="{D3CDBE56-DD6E-4EC6-AE14-488FCA835707}"/>
+    <hyperlink ref="B12" r:id="rId16" display="https://arxiv.org/abs/2302.11520" xr:uid="{C3C994F2-78AC-4E3D-9F00-6EDD0DF23090}"/>
+    <hyperlink ref="B19" r:id="rId17" display="https://arxiv.org/abs/2302.08043" xr:uid="{E52FCA35-E4DA-4E37-B21E-3A9A5969AE4E}"/>
+    <hyperlink ref="B6" r:id="rId18" display="https://arxiv.org/abs/2205.10625" xr:uid="{AB9E3F90-8908-4467-B39F-6738334AB4F7}"/>
+    <hyperlink ref="B7" r:id="rId19" display="https://arxiv.org/abs/2203.11171" xr:uid="{7266B56A-0B05-4F1E-ABA5-BA03CFC103C9}"/>
+    <hyperlink ref="B8" r:id="rId20" display="https://arxiv.org/abs/2210.00720" xr:uid="{3DF6AAA1-41DA-49D0-9AB2-F2034B2E8EC5}"/>
+    <hyperlink ref="C7" r:id="rId21" display="https://arxiv.org/abs/2203.11171" xr:uid="{EA10A7EF-28E2-44D9-8F1B-43170A074702}"/>
+    <hyperlink ref="C6" r:id="rId22" display="https://arxiv.org/abs/2205.10625" xr:uid="{A74E64C9-5FFF-46D3-8718-5E4BB6462BCC}"/>
+    <hyperlink ref="B5" r:id="rId23" display="https://arxiv.org/abs/2110.08387" xr:uid="{D8B3FD69-7DBC-4C22-9539-E58398B965D0}"/>
+    <hyperlink ref="B9" r:id="rId24" display="https://arxiv.org/abs/2303.17651" xr:uid="{11C1F1DD-041C-4138-8F53-051C6EBBC66A}"/>
+    <hyperlink ref="B10" r:id="rId25" display="https://arxiv.org/abs/2305.10601" xr:uid="{524E0623-8CA4-4712-A341-7219154F3113}"/>
+    <hyperlink ref="B11" r:id="rId26" display="https://arxiv.org/abs/2205.11822" xr:uid="{D7CB9552-7EBC-4EC4-933F-830C027F04AB}"/>
+    <hyperlink ref="B14" r:id="rId27" display="https://arxiv.org/abs/2211.01910" xr:uid="{6BF1C92E-DC69-4D02-83C7-061E772D6D9D}"/>
+    <hyperlink ref="B17" r:id="rId28" display="https://arxiv.org/abs/2210.03629" xr:uid="{6F4E5908-32E4-45CB-BE3F-4D6CC548C5A0}"/>
+    <hyperlink ref="B20" r:id="rId29" display="https://arxiv.org/abs/2309.11495" xr:uid="{55879B9C-F88C-4F3A-A402-8BC974CA767C}"/>
+    <hyperlink ref="B16" r:id="rId30" display="https://arxiv.org/abs/2302.12246" xr:uid="{3F530D0A-07C0-497A-94FA-2AF4B0CD77F0}"/>
+    <hyperlink ref="B18" r:id="rId31" display="https://arxiv.org/abs/2302.00923" xr:uid="{A617BD54-8B44-4D19-AF1E-144697664151}"/>
+    <hyperlink ref="B4" r:id="rId32" display="https://arxiv.org/abs/2201.11903" xr:uid="{F527D3C7-625E-48F9-8C8F-FEAA499C60A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>